--- a/Code/Results/Cases/Case_5_230/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_230/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.007277564520292</v>
+        <v>1.040555794334618</v>
       </c>
       <c r="D2">
-        <v>1.027105626040768</v>
+        <v>1.047096738552105</v>
       </c>
       <c r="E2">
-        <v>1.021831421784449</v>
+        <v>1.048319230427386</v>
       </c>
       <c r="F2">
-        <v>1.030766904003226</v>
+        <v>1.057694054655205</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.045822446836613</v>
+        <v>1.035998129261776</v>
       </c>
       <c r="J2">
-        <v>1.029242762542601</v>
+        <v>1.045641764919756</v>
       </c>
       <c r="K2">
-        <v>1.038199823137912</v>
+        <v>1.049860330828642</v>
       </c>
       <c r="L2">
-        <v>1.032994763228858</v>
+        <v>1.051079407225533</v>
       </c>
       <c r="M2">
-        <v>1.041813622685955</v>
+        <v>1.060428323745304</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -456,37 +456,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.011952771258494</v>
+        <v>1.041556995282184</v>
       </c>
       <c r="D3">
-        <v>1.030628990530583</v>
+        <v>1.047870163236246</v>
       </c>
       <c r="E3">
-        <v>1.025693641686696</v>
+        <v>1.049196448301861</v>
       </c>
       <c r="F3">
-        <v>1.034869970305875</v>
+        <v>1.058624907041211</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.04685080279005</v>
+        <v>1.036153347773119</v>
       </c>
       <c r="J3">
-        <v>1.032122811620708</v>
+        <v>1.046288373796804</v>
       </c>
       <c r="K3">
-        <v>1.040884411165102</v>
+        <v>1.050445630435419</v>
       </c>
       <c r="L3">
-        <v>1.036007992704824</v>
+        <v>1.051768477786647</v>
       </c>
       <c r="M3">
-        <v>1.045075307527118</v>
+        <v>1.061172765775723</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -494,37 +494,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.014917477244848</v>
+        <v>1.042205390041193</v>
       </c>
       <c r="D4">
-        <v>1.032865289435063</v>
+        <v>1.048370878913516</v>
       </c>
       <c r="E4">
-        <v>1.02814865079756</v>
+        <v>1.049764887251109</v>
       </c>
       <c r="F4">
-        <v>1.037477357891703</v>
+        <v>1.059228030536945</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.047492144352565</v>
+        <v>1.036252507435273</v>
       </c>
       <c r="J4">
-        <v>1.033947139667664</v>
+        <v>1.046706721272317</v>
       </c>
       <c r="K4">
-        <v>1.042582602804807</v>
+        <v>1.05082395628745</v>
       </c>
       <c r="L4">
-        <v>1.037918813761591</v>
+        <v>1.052214533204774</v>
       </c>
       <c r="M4">
-        <v>1.047143564512675</v>
+        <v>1.061654639138753</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -532,37 +532,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.016149886131262</v>
+        <v>1.042478106270181</v>
       </c>
       <c r="D5">
-        <v>1.033795327417592</v>
+        <v>1.048581440270978</v>
       </c>
       <c r="E5">
-        <v>1.029170537327033</v>
+        <v>1.050004054122145</v>
       </c>
       <c r="F5">
-        <v>1.038562500276272</v>
+        <v>1.059481773805033</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.047756117658267</v>
+        <v>1.036293887905323</v>
       </c>
       <c r="J5">
-        <v>1.034704981540631</v>
+        <v>1.046882581263618</v>
       </c>
       <c r="K5">
-        <v>1.043287472900876</v>
+        <v>1.050982907191634</v>
       </c>
       <c r="L5">
-        <v>1.038713095649197</v>
+        <v>1.052402097155591</v>
       </c>
       <c r="M5">
-        <v>1.048003256697268</v>
+        <v>1.061857258181567</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -570,37 +570,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.016356009461135</v>
+        <v>1.042523904188341</v>
       </c>
       <c r="D6">
-        <v>1.03395090165156</v>
+        <v>1.048616797957882</v>
       </c>
       <c r="E6">
-        <v>1.029341528620296</v>
+        <v>1.050044222698744</v>
       </c>
       <c r="F6">
-        <v>1.038744066075558</v>
+        <v>1.059524389528642</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.047800112091887</v>
+        <v>1.036300817894674</v>
       </c>
       <c r="J6">
-        <v>1.034831700803122</v>
+        <v>1.046912108124407</v>
       </c>
       <c r="K6">
-        <v>1.043405300535448</v>
+        <v>1.051009590013652</v>
       </c>
       <c r="L6">
-        <v>1.038845938021849</v>
+        <v>1.052433592416828</v>
       </c>
       <c r="M6">
-        <v>1.048147036869232</v>
+        <v>1.061891281093097</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -608,37 +608,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.014933998907861</v>
+        <v>1.042209033574746</v>
       </c>
       <c r="D7">
-        <v>1.032877755922909</v>
+        <v>1.048373692208673</v>
       </c>
       <c r="E7">
-        <v>1.028162344907287</v>
+        <v>1.049768082245361</v>
       </c>
       <c r="F7">
-        <v>1.037491900355683</v>
+        <v>1.059231420321397</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.047495693613842</v>
+        <v>1.036253061567139</v>
       </c>
       <c r="J7">
-        <v>1.033957301389497</v>
+        <v>1.046709071175477</v>
       </c>
       <c r="K7">
-        <v>1.042592056527856</v>
+        <v>1.050826080580743</v>
       </c>
       <c r="L7">
-        <v>1.037929462085305</v>
+        <v>1.052217039278698</v>
       </c>
       <c r="M7">
-        <v>1.047155089872064</v>
+        <v>1.06165734639059</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -646,37 +646,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.008870415017005</v>
+        <v>1.040894040359946</v>
       </c>
       <c r="D8">
-        <v>1.028305582125374</v>
+        <v>1.047358066789423</v>
       </c>
       <c r="E8">
-        <v>1.023146031448031</v>
+        <v>1.048615519708758</v>
       </c>
       <c r="F8">
-        <v>1.032163642104384</v>
+        <v>1.058008474192383</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.046175041227971</v>
+        <v>1.036050850206405</v>
       </c>
       <c r="J8">
-        <v>1.03022439756471</v>
+        <v>1.04586029957624</v>
       </c>
       <c r="K8">
-        <v>1.039115315075325</v>
+        <v>1.050058218225935</v>
       </c>
       <c r="L8">
-        <v>1.034021343238006</v>
+        <v>1.051312243831236</v>
       </c>
       <c r="M8">
-        <v>1.042924872538854</v>
+        <v>1.060679875627089</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -684,37 +684,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9976976673309571</v>
+        <v>1.038581107598058</v>
       </c>
       <c r="D9">
-        <v>1.019899851497925</v>
+        <v>1.045570440869252</v>
       </c>
       <c r="E9">
-        <v>1.013951790301109</v>
+        <v>1.046590895187545</v>
       </c>
       <c r="F9">
-        <v>1.022391963245119</v>
+        <v>1.05585966999995</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.04365795434562</v>
+        <v>1.035684769595194</v>
       </c>
       <c r="J9">
-        <v>1.023331989682389</v>
+        <v>1.044364299665574</v>
       </c>
       <c r="K9">
-        <v>1.032678112144038</v>
+        <v>1.048702111481478</v>
       </c>
       <c r="L9">
-        <v>1.026822493493208</v>
+        <v>1.04971930680116</v>
       </c>
       <c r="M9">
-        <v>1.035131900392256</v>
+        <v>1.058958795487696</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -722,37 +722,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9898840892550544</v>
+        <v>1.037042057483732</v>
       </c>
       <c r="D10">
-        <v>1.01403852552796</v>
+        <v>1.044380136999011</v>
       </c>
       <c r="E10">
-        <v>1.007558386853643</v>
+        <v>1.045245480319907</v>
       </c>
       <c r="F10">
-        <v>1.015593144913383</v>
+        <v>1.054431368238821</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.04184391827069</v>
+        <v>1.035434185101928</v>
       </c>
       <c r="J10">
-        <v>1.018504890525319</v>
+        <v>1.043366780280379</v>
       </c>
       <c r="K10">
-        <v>1.028158853273505</v>
+        <v>1.04779605912055</v>
       </c>
       <c r="L10">
-        <v>1.021792500255791</v>
+        <v>1.048658367880479</v>
       </c>
       <c r="M10">
-        <v>1.029686454361465</v>
+        <v>1.057812380908639</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -760,37 +760,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9864051506998589</v>
+        <v>1.036376329879835</v>
       </c>
       <c r="D11">
-        <v>1.011433909079927</v>
+        <v>1.0438650816192</v>
       </c>
       <c r="E11">
-        <v>1.004721264506081</v>
+        <v>1.044663944218564</v>
       </c>
       <c r="F11">
-        <v>1.012575187596409</v>
+        <v>1.053813918111904</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.041024160014209</v>
+        <v>1.035324136490078</v>
       </c>
       <c r="J11">
-        <v>1.016354635491431</v>
+        <v>1.042934810156772</v>
       </c>
       <c r="K11">
-        <v>1.026143372589934</v>
+        <v>1.047403270820958</v>
       </c>
       <c r="L11">
-        <v>1.019554690569127</v>
+        <v>1.048199223480447</v>
       </c>
       <c r="M11">
-        <v>1.027263787883399</v>
+        <v>1.057316214899727</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -798,37 +798,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9850977258958047</v>
+        <v>1.03612915352235</v>
       </c>
       <c r="D12">
-        <v>1.010455922220999</v>
+        <v>1.043673821584395</v>
       </c>
       <c r="E12">
-        <v>1.003656542832358</v>
+        <v>1.044448092875635</v>
       </c>
       <c r="F12">
-        <v>1.011442461532155</v>
+        <v>1.053584723232796</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.040714331692227</v>
+        <v>1.035283028058852</v>
       </c>
       <c r="J12">
-        <v>1.015546447015473</v>
+        <v>1.042774352404566</v>
       </c>
       <c r="K12">
-        <v>1.02538550791913</v>
+        <v>1.047257303352428</v>
       </c>
       <c r="L12">
-        <v>1.018714022948652</v>
+        <v>1.048028715184055</v>
       </c>
       <c r="M12">
-        <v>1.026353677039006</v>
+        <v>1.057131953726951</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -836,37 +836,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9853788743848427</v>
+        <v>1.036182168949806</v>
       </c>
       <c r="D13">
-        <v>1.010666188127934</v>
+        <v>1.043714845025951</v>
       </c>
       <c r="E13">
-        <v>1.003885431389974</v>
+        <v>1.044494386594967</v>
       </c>
       <c r="F13">
-        <v>1.011685975682262</v>
+        <v>1.053633879341972</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.040781035391068</v>
+        <v>1.035291856424111</v>
       </c>
       <c r="J13">
-        <v>1.015720243284751</v>
+        <v>1.042808771341458</v>
       </c>
       <c r="K13">
-        <v>1.025548496991062</v>
+        <v>1.047288616950105</v>
       </c>
       <c r="L13">
-        <v>1.018894784217638</v>
+        <v>1.048065288040608</v>
       </c>
       <c r="M13">
-        <v>1.026549369937545</v>
+        <v>1.057171476683828</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -874,37 +874,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9862973934721752</v>
+        <v>1.036355896069063</v>
       </c>
       <c r="D14">
-        <v>1.011353285964054</v>
+        <v>1.043849270886601</v>
       </c>
       <c r="E14">
-        <v>1.004633479775262</v>
+        <v>1.044646098668354</v>
       </c>
       <c r="F14">
-        <v>1.01248179885931</v>
+        <v>1.053794969651255</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.040998659428556</v>
+        <v>1.035320743173649</v>
       </c>
       <c r="J14">
-        <v>1.016288026707687</v>
+        <v>1.04292154676227</v>
       </c>
       <c r="K14">
-        <v>1.026080917984472</v>
+        <v>1.047391206494409</v>
       </c>
       <c r="L14">
-        <v>1.019485396195009</v>
+        <v>1.048185128423127</v>
       </c>
       <c r="M14">
-        <v>1.027188769407454</v>
+        <v>1.057300983053313</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -912,37 +912,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9868612845146317</v>
+        <v>1.036462948950305</v>
       </c>
       <c r="D15">
-        <v>1.01177522035761</v>
+        <v>1.043932102351352</v>
       </c>
       <c r="E15">
-        <v>1.005092916859913</v>
+        <v>1.044739594331465</v>
       </c>
       <c r="F15">
-        <v>1.012970559789591</v>
+        <v>1.053894243097149</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.041132032270502</v>
+        <v>1.03533851059465</v>
       </c>
       <c r="J15">
-        <v>1.01663658524954</v>
+        <v>1.042991030808274</v>
       </c>
       <c r="K15">
-        <v>1.026407724632771</v>
+        <v>1.047454406262691</v>
       </c>
       <c r="L15">
-        <v>1.01984802572913</v>
+        <v>1.048258971151658</v>
       </c>
       <c r="M15">
-        <v>1.027581354236724</v>
+        <v>1.057380781132963</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -950,37 +950,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9901128912581497</v>
+        <v>1.037086254252651</v>
       </c>
       <c r="D16">
-        <v>1.014209939169056</v>
+        <v>1.044414327096469</v>
       </c>
       <c r="E16">
-        <v>1.007745182078699</v>
+        <v>1.0452840969151</v>
       </c>
       <c r="F16">
-        <v>1.015791826816734</v>
+        <v>1.054472367840209</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.041897585414252</v>
+        <v>1.035441456178543</v>
       </c>
       <c r="J16">
-        <v>1.018646291293074</v>
+        <v>1.043395447993408</v>
       </c>
       <c r="K16">
-        <v>1.028291344039165</v>
+        <v>1.047822117541241</v>
       </c>
       <c r="L16">
-        <v>1.021939717838446</v>
+        <v>1.048688845112142</v>
       </c>
       <c r="M16">
-        <v>1.029845832901566</v>
+        <v>1.057845314939697</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -988,37 +988,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9921263750579383</v>
+        <v>1.037477422735616</v>
       </c>
       <c r="D17">
-        <v>1.015718989676976</v>
+        <v>1.044716909627804</v>
       </c>
       <c r="E17">
-        <v>1.00939009085398</v>
+        <v>1.045625927591253</v>
       </c>
       <c r="F17">
-        <v>1.017541303025014</v>
+        <v>1.054835282568614</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.042368495270113</v>
+        <v>1.035505618218172</v>
       </c>
       <c r="J17">
-        <v>1.019890524138831</v>
+        <v>1.043649118723252</v>
       </c>
       <c r="K17">
-        <v>1.029456909367383</v>
+        <v>1.048052650187129</v>
       </c>
       <c r="L17">
-        <v>1.023235456845444</v>
+        <v>1.048958561062505</v>
       </c>
       <c r="M17">
-        <v>1.03124860460394</v>
+        <v>1.058136769475463</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1026,37 +1026,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.993291640318539</v>
+        <v>1.037705651344661</v>
       </c>
       <c r="D18">
-        <v>1.016592801092208</v>
+        <v>1.044893434974385</v>
       </c>
       <c r="E18">
-        <v>1.010342946105063</v>
+        <v>1.045825411656417</v>
       </c>
       <c r="F18">
-        <v>1.018554643336715</v>
+        <v>1.055047062338043</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.042639875761304</v>
+        <v>1.035542893857263</v>
       </c>
       <c r="J18">
-        <v>1.020610499097941</v>
+        <v>1.043797076879283</v>
       </c>
       <c r="K18">
-        <v>1.030131138547335</v>
+        <v>1.048187071372888</v>
       </c>
       <c r="L18">
-        <v>1.023985503566184</v>
+        <v>1.049115905789424</v>
       </c>
       <c r="M18">
-        <v>1.032060605205781</v>
+        <v>1.058306792970869</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1064,37 +1064,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9936874351731444</v>
+        <v>1.037783482687455</v>
       </c>
       <c r="D19">
-        <v>1.016889678809546</v>
+        <v>1.044953631296755</v>
       </c>
       <c r="E19">
-        <v>1.010666743393766</v>
+        <v>1.045893447495361</v>
       </c>
       <c r="F19">
-        <v>1.018898979577736</v>
+        <v>1.055119290308234</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.042731856314308</v>
+        <v>1.035555578600735</v>
       </c>
       <c r="J19">
-        <v>1.020855027567078</v>
+        <v>1.043847526135637</v>
       </c>
       <c r="K19">
-        <v>1.030360091391177</v>
+        <v>1.048232897928522</v>
       </c>
       <c r="L19">
-        <v>1.024240290740839</v>
+        <v>1.049169560313229</v>
       </c>
       <c r="M19">
-        <v>1.032336437217231</v>
+        <v>1.058364770457326</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1102,37 +1102,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9919113011572255</v>
+        <v>1.037435447160507</v>
       </c>
       <c r="D20">
-        <v>1.015557747570393</v>
+        <v>1.044684441852003</v>
       </c>
       <c r="E20">
-        <v>1.009214293507738</v>
+        <v>1.045589242041043</v>
       </c>
       <c r="F20">
-        <v>1.017354339340099</v>
+        <v>1.054796335133186</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.042318313033866</v>
+        <v>1.035498749646175</v>
       </c>
       <c r="J20">
-        <v>1.019757629256823</v>
+        <v>1.043621902630112</v>
       </c>
       <c r="K20">
-        <v>1.029332440036733</v>
+        <v>1.048027920822896</v>
       </c>
       <c r="L20">
-        <v>1.023097032849431</v>
+        <v>1.048929620606764</v>
       </c>
       <c r="M20">
-        <v>1.031098746532738</v>
+        <v>1.058105496775853</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1140,37 +1140,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9860273388226608</v>
+        <v>1.036304734871964</v>
       </c>
       <c r="D21">
-        <v>1.011151247323693</v>
+        <v>1.043809684307356</v>
       </c>
       <c r="E21">
-        <v>1.004413503435866</v>
+        <v>1.044601418898869</v>
       </c>
       <c r="F21">
-        <v>1.01224777739675</v>
+        <v>1.05374752832033</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.040934723359149</v>
+        <v>1.035312243131987</v>
       </c>
       <c r="J21">
-        <v>1.016121094415319</v>
+        <v>1.042888337337843</v>
       </c>
       <c r="K21">
-        <v>1.025924391454911</v>
+        <v>1.047360998311253</v>
       </c>
       <c r="L21">
-        <v>1.019311740307019</v>
+        <v>1.048149837350427</v>
       </c>
       <c r="M21">
-        <v>1.027000768608507</v>
+        <v>1.057262845626181</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1178,37 +1178,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9822395065545009</v>
+        <v>1.035594416209079</v>
       </c>
       <c r="D22">
-        <v>1.00831958471738</v>
+        <v>1.043260005274548</v>
       </c>
       <c r="E22">
-        <v>1.001331754415453</v>
+        <v>1.043981244565766</v>
       </c>
       <c r="F22">
-        <v>1.008968929130889</v>
+        <v>1.053088991096057</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.040033845711114</v>
+        <v>1.035193640065215</v>
       </c>
       <c r="J22">
-        <v>1.013779513985122</v>
+        <v>1.042427088284076</v>
       </c>
       <c r="K22">
-        <v>1.023728011237718</v>
+        <v>1.046941282359052</v>
       </c>
       <c r="L22">
-        <v>1.016876875075708</v>
+        <v>1.047659779174776</v>
       </c>
       <c r="M22">
-        <v>1.024364779333489</v>
+        <v>1.056733251852371</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1216,37 +1216,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9842561752570981</v>
+        <v>1.035970911998998</v>
       </c>
       <c r="D23">
-        <v>1.009826674641626</v>
+        <v>1.043551370174906</v>
       </c>
       <c r="E23">
-        <v>1.002971645764943</v>
+        <v>1.044309924124005</v>
       </c>
       <c r="F23">
-        <v>1.010713780100372</v>
+        <v>1.053438009429338</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.040514417895266</v>
+        <v>1.035256640560336</v>
       </c>
       <c r="J23">
-        <v>1.015026219594418</v>
+        <v>1.042671607454195</v>
       </c>
       <c r="K23">
-        <v>1.024897582920327</v>
+        <v>1.04716381887817</v>
       </c>
       <c r="L23">
-        <v>1.018173010286191</v>
+        <v>1.047919546879043</v>
       </c>
       <c r="M23">
-        <v>1.025767975030116</v>
+        <v>1.057013978851475</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1254,37 +1254,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9920085120597243</v>
+        <v>1.037454413910139</v>
       </c>
       <c r="D24">
-        <v>1.015630625654972</v>
+        <v>1.044699112537156</v>
       </c>
       <c r="E24">
-        <v>1.009293749092679</v>
+        <v>1.045605818353146</v>
       </c>
       <c r="F24">
-        <v>1.017438842077812</v>
+        <v>1.054813933500863</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.042340998389996</v>
+        <v>1.035501853718607</v>
       </c>
       <c r="J24">
-        <v>1.019817696515754</v>
+        <v>1.043634200422552</v>
       </c>
       <c r="K24">
-        <v>1.029388699723097</v>
+        <v>1.048039095096028</v>
       </c>
       <c r="L24">
-        <v>1.023159598386969</v>
+        <v>1.048942697478975</v>
       </c>
       <c r="M24">
-        <v>1.031166480106726</v>
+        <v>1.058119627491718</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1292,37 +1292,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.000647575203971</v>
+        <v>1.039178547463047</v>
       </c>
       <c r="D25">
-        <v>1.022116557031431</v>
+        <v>1.0460323357271</v>
       </c>
       <c r="E25">
-        <v>1.016373284353623</v>
+        <v>1.047113550503223</v>
       </c>
       <c r="F25">
-        <v>1.024966205677635</v>
+        <v>1.056414446708348</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.044332008399615</v>
+        <v>1.035780563514513</v>
       </c>
       <c r="J25">
-        <v>1.025153165496637</v>
+        <v>1.044751088203617</v>
       </c>
       <c r="K25">
-        <v>1.034380976176078</v>
+        <v>1.0490530511375</v>
       </c>
       <c r="L25">
-        <v>1.028722634138443</v>
+        <v>1.050130943898067</v>
       </c>
       <c r="M25">
-        <v>1.037188932844998</v>
+        <v>1.059403569418627</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_230/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_230/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.040555794334618</v>
+        <v>1.007277564520292</v>
       </c>
       <c r="D2">
-        <v>1.047096738552105</v>
+        <v>1.027105626040768</v>
       </c>
       <c r="E2">
-        <v>1.048319230427386</v>
+        <v>1.021831421784449</v>
       </c>
       <c r="F2">
-        <v>1.057694054655205</v>
+        <v>1.030766904003226</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.035998129261776</v>
+        <v>1.045822446836613</v>
       </c>
       <c r="J2">
-        <v>1.045641764919756</v>
+        <v>1.029242762542602</v>
       </c>
       <c r="K2">
-        <v>1.049860330828642</v>
+        <v>1.038199823137912</v>
       </c>
       <c r="L2">
-        <v>1.051079407225533</v>
+        <v>1.032994763228858</v>
       </c>
       <c r="M2">
-        <v>1.060428323745304</v>
+        <v>1.041813622685955</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -456,37 +456,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.041556995282184</v>
+        <v>1.011952771258494</v>
       </c>
       <c r="D3">
-        <v>1.047870163236246</v>
+        <v>1.030628990530583</v>
       </c>
       <c r="E3">
-        <v>1.049196448301861</v>
+        <v>1.025693641686696</v>
       </c>
       <c r="F3">
-        <v>1.058624907041211</v>
+        <v>1.034869970305875</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.036153347773119</v>
+        <v>1.04685080279005</v>
       </c>
       <c r="J3">
-        <v>1.046288373796804</v>
+        <v>1.032122811620708</v>
       </c>
       <c r="K3">
-        <v>1.050445630435419</v>
+        <v>1.040884411165102</v>
       </c>
       <c r="L3">
-        <v>1.051768477786647</v>
+        <v>1.036007992704824</v>
       </c>
       <c r="M3">
-        <v>1.061172765775723</v>
+        <v>1.045075307527117</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -494,37 +494,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.042205390041193</v>
+        <v>1.014917477244848</v>
       </c>
       <c r="D4">
-        <v>1.048370878913516</v>
+        <v>1.032865289435063</v>
       </c>
       <c r="E4">
-        <v>1.049764887251109</v>
+        <v>1.02814865079756</v>
       </c>
       <c r="F4">
-        <v>1.059228030536945</v>
+        <v>1.037477357891703</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.036252507435273</v>
+        <v>1.047492144352565</v>
       </c>
       <c r="J4">
-        <v>1.046706721272317</v>
+        <v>1.033947139667664</v>
       </c>
       <c r="K4">
-        <v>1.05082395628745</v>
+        <v>1.042582602804807</v>
       </c>
       <c r="L4">
-        <v>1.052214533204774</v>
+        <v>1.03791881376159</v>
       </c>
       <c r="M4">
-        <v>1.061654639138753</v>
+        <v>1.047143564512675</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -532,37 +532,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.042478106270181</v>
+        <v>1.016149886131261</v>
       </c>
       <c r="D5">
-        <v>1.048581440270978</v>
+        <v>1.033795327417591</v>
       </c>
       <c r="E5">
-        <v>1.050004054122145</v>
+        <v>1.029170537327032</v>
       </c>
       <c r="F5">
-        <v>1.059481773805033</v>
+        <v>1.038562500276271</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.036293887905323</v>
+        <v>1.047756117658267</v>
       </c>
       <c r="J5">
-        <v>1.046882581263618</v>
+        <v>1.034704981540631</v>
       </c>
       <c r="K5">
-        <v>1.050982907191634</v>
+        <v>1.043287472900875</v>
       </c>
       <c r="L5">
-        <v>1.052402097155591</v>
+        <v>1.038713095649195</v>
       </c>
       <c r="M5">
-        <v>1.061857258181567</v>
+        <v>1.048003256697267</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -570,37 +570,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.042523904188341</v>
+        <v>1.016356009461135</v>
       </c>
       <c r="D6">
-        <v>1.048616797957882</v>
+        <v>1.03395090165156</v>
       </c>
       <c r="E6">
-        <v>1.050044222698744</v>
+        <v>1.029341528620295</v>
       </c>
       <c r="F6">
-        <v>1.059524389528642</v>
+        <v>1.038744066075558</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.036300817894674</v>
+        <v>1.047800112091888</v>
       </c>
       <c r="J6">
-        <v>1.046912108124407</v>
+        <v>1.034831700803122</v>
       </c>
       <c r="K6">
-        <v>1.051009590013652</v>
+        <v>1.043405300535448</v>
       </c>
       <c r="L6">
-        <v>1.052433592416828</v>
+        <v>1.038845938021848</v>
       </c>
       <c r="M6">
-        <v>1.061891281093097</v>
+        <v>1.048147036869232</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -608,37 +608,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.042209033574746</v>
+        <v>1.014933998907861</v>
       </c>
       <c r="D7">
-        <v>1.048373692208673</v>
+        <v>1.032877755922909</v>
       </c>
       <c r="E7">
-        <v>1.049768082245361</v>
+        <v>1.028162344907286</v>
       </c>
       <c r="F7">
-        <v>1.059231420321397</v>
+        <v>1.037491900355683</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.036253061567139</v>
+        <v>1.047495693613842</v>
       </c>
       <c r="J7">
-        <v>1.046709071175477</v>
+        <v>1.033957301389496</v>
       </c>
       <c r="K7">
-        <v>1.050826080580743</v>
+        <v>1.042592056527856</v>
       </c>
       <c r="L7">
-        <v>1.052217039278698</v>
+        <v>1.037929462085305</v>
       </c>
       <c r="M7">
-        <v>1.06165734639059</v>
+        <v>1.047155089872064</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -646,37 +646,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.040894040359946</v>
+        <v>1.008870415017004</v>
       </c>
       <c r="D8">
-        <v>1.047358066789423</v>
+        <v>1.028305582125373</v>
       </c>
       <c r="E8">
-        <v>1.048615519708758</v>
+        <v>1.02314603144803</v>
       </c>
       <c r="F8">
-        <v>1.058008474192383</v>
+        <v>1.032163642104384</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.036050850206405</v>
+        <v>1.04617504122797</v>
       </c>
       <c r="J8">
-        <v>1.04586029957624</v>
+        <v>1.030224397564709</v>
       </c>
       <c r="K8">
-        <v>1.050058218225935</v>
+        <v>1.039115315075323</v>
       </c>
       <c r="L8">
-        <v>1.051312243831236</v>
+        <v>1.034021343238005</v>
       </c>
       <c r="M8">
-        <v>1.060679875627089</v>
+        <v>1.042924872538853</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -684,37 +684,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.038581107598058</v>
+        <v>0.9976976673309578</v>
       </c>
       <c r="D9">
-        <v>1.045570440869252</v>
+        <v>1.019899851497926</v>
       </c>
       <c r="E9">
-        <v>1.046590895187545</v>
+        <v>1.01395179030111</v>
       </c>
       <c r="F9">
-        <v>1.05585966999995</v>
+        <v>1.022391963245119</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.035684769595194</v>
+        <v>1.04365795434562</v>
       </c>
       <c r="J9">
-        <v>1.044364299665574</v>
+        <v>1.023331989682389</v>
       </c>
       <c r="K9">
-        <v>1.048702111481478</v>
+        <v>1.032678112144039</v>
       </c>
       <c r="L9">
-        <v>1.04971930680116</v>
+        <v>1.026822493493209</v>
       </c>
       <c r="M9">
-        <v>1.058958795487696</v>
+        <v>1.035131900392257</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -722,37 +722,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.037042057483732</v>
+        <v>0.9898840892550536</v>
       </c>
       <c r="D10">
-        <v>1.044380136999011</v>
+        <v>1.01403852552796</v>
       </c>
       <c r="E10">
-        <v>1.045245480319907</v>
+        <v>1.007558386853642</v>
       </c>
       <c r="F10">
-        <v>1.054431368238821</v>
+        <v>1.015593144913382</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.035434185101928</v>
+        <v>1.041843918270689</v>
       </c>
       <c r="J10">
-        <v>1.043366780280379</v>
+        <v>1.018504890525318</v>
       </c>
       <c r="K10">
-        <v>1.04779605912055</v>
+        <v>1.028158853273504</v>
       </c>
       <c r="L10">
-        <v>1.048658367880479</v>
+        <v>1.02179250025579</v>
       </c>
       <c r="M10">
-        <v>1.057812380908639</v>
+        <v>1.029686454361464</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -760,37 +760,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.036376329879835</v>
+        <v>0.986405150699858</v>
       </c>
       <c r="D11">
-        <v>1.0438650816192</v>
+        <v>1.011433909079926</v>
       </c>
       <c r="E11">
-        <v>1.044663944218564</v>
+        <v>1.004721264506081</v>
       </c>
       <c r="F11">
-        <v>1.053813918111904</v>
+        <v>1.012575187596408</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.035324136490078</v>
+        <v>1.041024160014208</v>
       </c>
       <c r="J11">
-        <v>1.042934810156772</v>
+        <v>1.01635463549143</v>
       </c>
       <c r="K11">
-        <v>1.047403270820958</v>
+        <v>1.026143372589933</v>
       </c>
       <c r="L11">
-        <v>1.048199223480447</v>
+        <v>1.019554690569126</v>
       </c>
       <c r="M11">
-        <v>1.057316214899727</v>
+        <v>1.027263787883397</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -798,37 +798,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.03612915352235</v>
+        <v>0.9850977258958052</v>
       </c>
       <c r="D12">
-        <v>1.043673821584395</v>
+        <v>1.010455922220999</v>
       </c>
       <c r="E12">
-        <v>1.044448092875635</v>
+        <v>1.003656542832358</v>
       </c>
       <c r="F12">
-        <v>1.053584723232796</v>
+        <v>1.011442461532156</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.035283028058852</v>
+        <v>1.040714331692227</v>
       </c>
       <c r="J12">
-        <v>1.042774352404566</v>
+        <v>1.015546447015473</v>
       </c>
       <c r="K12">
-        <v>1.047257303352428</v>
+        <v>1.02538550791913</v>
       </c>
       <c r="L12">
-        <v>1.048028715184055</v>
+        <v>1.018714022948653</v>
       </c>
       <c r="M12">
-        <v>1.057131953726951</v>
+        <v>1.026353677039006</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -836,37 +836,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.036182168949806</v>
+        <v>0.9853788743848438</v>
       </c>
       <c r="D13">
-        <v>1.043714845025951</v>
+        <v>1.010666188127936</v>
       </c>
       <c r="E13">
-        <v>1.044494386594967</v>
+        <v>1.003885431389975</v>
       </c>
       <c r="F13">
-        <v>1.053633879341972</v>
+        <v>1.011685975682263</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.035291856424111</v>
+        <v>1.040781035391068</v>
       </c>
       <c r="J13">
-        <v>1.042808771341458</v>
+        <v>1.015720243284753</v>
       </c>
       <c r="K13">
-        <v>1.047288616950105</v>
+        <v>1.025548496991063</v>
       </c>
       <c r="L13">
-        <v>1.048065288040608</v>
+        <v>1.018894784217639</v>
       </c>
       <c r="M13">
-        <v>1.057171476683828</v>
+        <v>1.026549369937546</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -874,37 +874,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.036355896069063</v>
+        <v>0.9862973934721757</v>
       </c>
       <c r="D14">
-        <v>1.043849270886601</v>
+        <v>1.011353285964054</v>
       </c>
       <c r="E14">
-        <v>1.044646098668354</v>
+        <v>1.004633479775262</v>
       </c>
       <c r="F14">
-        <v>1.053794969651255</v>
+        <v>1.01248179885931</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.035320743173649</v>
+        <v>1.040998659428556</v>
       </c>
       <c r="J14">
-        <v>1.04292154676227</v>
+        <v>1.016288026707687</v>
       </c>
       <c r="K14">
-        <v>1.047391206494409</v>
+        <v>1.026080917984472</v>
       </c>
       <c r="L14">
-        <v>1.048185128423127</v>
+        <v>1.01948539619501</v>
       </c>
       <c r="M14">
-        <v>1.057300983053313</v>
+        <v>1.027188769407455</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -912,37 +912,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.036462948950305</v>
+        <v>0.9868612845146316</v>
       </c>
       <c r="D15">
-        <v>1.043932102351352</v>
+        <v>1.01177522035761</v>
       </c>
       <c r="E15">
-        <v>1.044739594331465</v>
+        <v>1.005092916859913</v>
       </c>
       <c r="F15">
-        <v>1.053894243097149</v>
+        <v>1.01297055978959</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.03533851059465</v>
+        <v>1.041132032270502</v>
       </c>
       <c r="J15">
-        <v>1.042991030808274</v>
+        <v>1.01663658524954</v>
       </c>
       <c r="K15">
-        <v>1.047454406262691</v>
+        <v>1.026407724632771</v>
       </c>
       <c r="L15">
-        <v>1.048258971151658</v>
+        <v>1.01984802572913</v>
       </c>
       <c r="M15">
-        <v>1.057380781132963</v>
+        <v>1.027581354236723</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -950,37 +950,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.037086254252651</v>
+        <v>0.9901128912581502</v>
       </c>
       <c r="D16">
-        <v>1.044414327096469</v>
+        <v>1.014209939169056</v>
       </c>
       <c r="E16">
-        <v>1.0452840969151</v>
+        <v>1.007745182078699</v>
       </c>
       <c r="F16">
-        <v>1.054472367840209</v>
+        <v>1.015791826816735</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.035441456178543</v>
+        <v>1.041897585414252</v>
       </c>
       <c r="J16">
-        <v>1.043395447993408</v>
+        <v>1.018646291293075</v>
       </c>
       <c r="K16">
-        <v>1.047822117541241</v>
+        <v>1.028291344039165</v>
       </c>
       <c r="L16">
-        <v>1.048688845112142</v>
+        <v>1.021939717838446</v>
       </c>
       <c r="M16">
-        <v>1.057845314939697</v>
+        <v>1.029845832901567</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -988,37 +988,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.037477422735616</v>
+        <v>0.992126375057938</v>
       </c>
       <c r="D17">
-        <v>1.044716909627804</v>
+        <v>1.015718989676975</v>
       </c>
       <c r="E17">
-        <v>1.045625927591253</v>
+        <v>1.00939009085398</v>
       </c>
       <c r="F17">
-        <v>1.054835282568614</v>
+        <v>1.017541303025013</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.035505618218172</v>
+        <v>1.042368495270113</v>
       </c>
       <c r="J17">
-        <v>1.043649118723252</v>
+        <v>1.01989052413883</v>
       </c>
       <c r="K17">
-        <v>1.048052650187129</v>
+        <v>1.029456909367382</v>
       </c>
       <c r="L17">
-        <v>1.048958561062505</v>
+        <v>1.023235456845443</v>
       </c>
       <c r="M17">
-        <v>1.058136769475463</v>
+        <v>1.031248604603939</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1026,37 +1026,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.037705651344661</v>
+        <v>0.9932916403185397</v>
       </c>
       <c r="D18">
-        <v>1.044893434974385</v>
+        <v>1.016592801092208</v>
       </c>
       <c r="E18">
-        <v>1.045825411656417</v>
+        <v>1.010342946105064</v>
       </c>
       <c r="F18">
-        <v>1.055047062338043</v>
+        <v>1.018554643336715</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.035542893857263</v>
+        <v>1.042639875761304</v>
       </c>
       <c r="J18">
-        <v>1.043797076879283</v>
+        <v>1.020610499097942</v>
       </c>
       <c r="K18">
-        <v>1.048187071372888</v>
+        <v>1.030131138547335</v>
       </c>
       <c r="L18">
-        <v>1.049115905789424</v>
+        <v>1.023985503566185</v>
       </c>
       <c r="M18">
-        <v>1.058306792970869</v>
+        <v>1.032060605205781</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1064,37 +1064,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.037783482687455</v>
+        <v>0.9936874351731443</v>
       </c>
       <c r="D19">
-        <v>1.044953631296755</v>
+        <v>1.016889678809546</v>
       </c>
       <c r="E19">
-        <v>1.045893447495361</v>
+        <v>1.010666743393766</v>
       </c>
       <c r="F19">
-        <v>1.055119290308234</v>
+        <v>1.018898979577736</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.035555578600735</v>
+        <v>1.042731856314308</v>
       </c>
       <c r="J19">
-        <v>1.043847526135637</v>
+        <v>1.020855027567078</v>
       </c>
       <c r="K19">
-        <v>1.048232897928522</v>
+        <v>1.030360091391177</v>
       </c>
       <c r="L19">
-        <v>1.049169560313229</v>
+        <v>1.024240290740839</v>
       </c>
       <c r="M19">
-        <v>1.058364770457326</v>
+        <v>1.032336437217231</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1102,37 +1102,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.037435447160507</v>
+        <v>0.9919113011572253</v>
       </c>
       <c r="D20">
-        <v>1.044684441852003</v>
+        <v>1.015557747570393</v>
       </c>
       <c r="E20">
-        <v>1.045589242041043</v>
+        <v>1.009214293507737</v>
       </c>
       <c r="F20">
-        <v>1.054796335133186</v>
+        <v>1.017354339340099</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.035498749646175</v>
+        <v>1.042318313033866</v>
       </c>
       <c r="J20">
-        <v>1.043621902630112</v>
+        <v>1.019757629256822</v>
       </c>
       <c r="K20">
-        <v>1.048027920822896</v>
+        <v>1.029332440036732</v>
       </c>
       <c r="L20">
-        <v>1.048929620606764</v>
+        <v>1.02309703284943</v>
       </c>
       <c r="M20">
-        <v>1.058105496775853</v>
+        <v>1.031098746532737</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1140,37 +1140,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.036304734871964</v>
+        <v>0.9860273388226618</v>
       </c>
       <c r="D21">
-        <v>1.043809684307356</v>
+        <v>1.011151247323694</v>
       </c>
       <c r="E21">
-        <v>1.044601418898869</v>
+        <v>1.004413503435866</v>
       </c>
       <c r="F21">
-        <v>1.05374752832033</v>
+        <v>1.012247777396751</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.035312243131987</v>
+        <v>1.040934723359149</v>
       </c>
       <c r="J21">
-        <v>1.042888337337843</v>
+        <v>1.016121094415319</v>
       </c>
       <c r="K21">
-        <v>1.047360998311253</v>
+        <v>1.025924391454912</v>
       </c>
       <c r="L21">
-        <v>1.048149837350427</v>
+        <v>1.019311740307019</v>
       </c>
       <c r="M21">
-        <v>1.057262845626181</v>
+        <v>1.027000768608508</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1178,37 +1178,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.035594416209079</v>
+        <v>0.9822395065545022</v>
       </c>
       <c r="D22">
-        <v>1.043260005274548</v>
+        <v>1.008319584717382</v>
       </c>
       <c r="E22">
-        <v>1.043981244565766</v>
+        <v>1.001331754415454</v>
       </c>
       <c r="F22">
-        <v>1.053088991096057</v>
+        <v>1.00896892913089</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.035193640065215</v>
+        <v>1.040033845711115</v>
       </c>
       <c r="J22">
-        <v>1.042427088284076</v>
+        <v>1.013779513985123</v>
       </c>
       <c r="K22">
-        <v>1.046941282359052</v>
+        <v>1.023728011237719</v>
       </c>
       <c r="L22">
-        <v>1.047659779174776</v>
+        <v>1.01687687507571</v>
       </c>
       <c r="M22">
-        <v>1.056733251852371</v>
+        <v>1.02436477933349</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1216,37 +1216,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.035970911998998</v>
+        <v>0.9842561752570986</v>
       </c>
       <c r="D23">
-        <v>1.043551370174906</v>
+        <v>1.009826674641626</v>
       </c>
       <c r="E23">
-        <v>1.044309924124005</v>
+        <v>1.002971645764944</v>
       </c>
       <c r="F23">
-        <v>1.053438009429338</v>
+        <v>1.010713780100372</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.035256640560336</v>
+        <v>1.040514417895266</v>
       </c>
       <c r="J23">
-        <v>1.042671607454195</v>
+        <v>1.015026219594418</v>
       </c>
       <c r="K23">
-        <v>1.04716381887817</v>
+        <v>1.024897582920327</v>
       </c>
       <c r="L23">
-        <v>1.047919546879043</v>
+        <v>1.018173010286191</v>
       </c>
       <c r="M23">
-        <v>1.057013978851475</v>
+        <v>1.025767975030116</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1254,37 +1254,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.037454413910139</v>
+        <v>0.9920085120597245</v>
       </c>
       <c r="D24">
-        <v>1.044699112537156</v>
+        <v>1.015630625654972</v>
       </c>
       <c r="E24">
-        <v>1.045605818353146</v>
+        <v>1.009293749092679</v>
       </c>
       <c r="F24">
-        <v>1.054813933500863</v>
+        <v>1.017438842077813</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.035501853718607</v>
+        <v>1.042340998389996</v>
       </c>
       <c r="J24">
-        <v>1.043634200422552</v>
+        <v>1.019817696515754</v>
       </c>
       <c r="K24">
-        <v>1.048039095096028</v>
+        <v>1.029388699723097</v>
       </c>
       <c r="L24">
-        <v>1.048942697478975</v>
+        <v>1.023159598386969</v>
       </c>
       <c r="M24">
-        <v>1.058119627491718</v>
+        <v>1.031166480106726</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1292,37 +1292,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.039178547463047</v>
+        <v>1.000647575203972</v>
       </c>
       <c r="D25">
-        <v>1.0460323357271</v>
+        <v>1.022116557031431</v>
       </c>
       <c r="E25">
-        <v>1.047113550503223</v>
+        <v>1.016373284353624</v>
       </c>
       <c r="F25">
-        <v>1.056414446708348</v>
+        <v>1.024966205677636</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.035780563514513</v>
+        <v>1.044332008399615</v>
       </c>
       <c r="J25">
-        <v>1.044751088203617</v>
+        <v>1.025153165496637</v>
       </c>
       <c r="K25">
-        <v>1.0490530511375</v>
+        <v>1.034380976176078</v>
       </c>
       <c r="L25">
-        <v>1.050130943898067</v>
+        <v>1.028722634138444</v>
       </c>
       <c r="M25">
-        <v>1.059403569418627</v>
+        <v>1.037188932844999</v>
       </c>
     </row>
   </sheetData>
